--- a/シミュレータ設計書.xlsx
+++ b/シミュレータ設計書.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magin\Desktop\WORK\Git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magin\Desktop\WORK\micromouse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B2E5C49-B80F-45CC-8E6B-1CFFB43D106A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB185C1-0105-4344-9766-9369E95F014C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{8CE03580-2C65-4A35-AB90-6FFE0EA32C34}"/>
   </bookViews>
@@ -32,9 +32,24 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>マップ情報定義</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,36 +65,47 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="30">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -236,13 +262,182 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -288,8 +483,134 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -306,6 +627,190 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>165101</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="shpSquare02" descr="付箋検索用文字列">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{813FCE1D-0C6F-4722-A5BB-DCB66D340624}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4210051" y="762001"/>
+          <a:ext cx="2695575" cy="898525"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -60596"/>
+            <a:gd name="adj2" fmla="val 51747"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFF99"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFCC"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="2700000" scaled="1"/>
+        </a:gradFill>
+        <a:ln w="9525"/>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="72000" tIns="72000" rIns="72000" bIns="72000" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>こういう</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>次元配列をテスト用マップデータにする</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>157893</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC31748C-4763-4263-8D75-26DDF5D117B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4987068" y="104775"/>
+          <a:ext cx="6042882" cy="4533900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -605,253 +1110,855 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F896E19C-296B-40ED-881E-2E0780B787F9}">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="11" width="4" customWidth="1"/>
-    <col min="12" max="12" width="4.125" customWidth="1"/>
+    <col min="2" max="17" width="3.625" customWidth="1"/>
+    <col min="18" max="18" width="4.125" customWidth="1"/>
+    <col min="19" max="30" width="3" customWidth="1"/>
+    <col min="31" max="31" width="3.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="1">
+    <row r="1" spans="1:17" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="3">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
+      <c r="D1" s="3">
         <v>2</v>
       </c>
-      <c r="D1" s="1">
+      <c r="E1" s="3">
         <v>3</v>
       </c>
-      <c r="E1" s="1">
+      <c r="F1" s="3">
         <v>4</v>
       </c>
-      <c r="F1" s="1">
+      <c r="G1" s="3">
         <v>5</v>
       </c>
-      <c r="G1" s="1">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1">
+      <c r="H1" s="3">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3">
         <v>7</v>
       </c>
-      <c r="I1" s="1">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A2" s="1">
+      <c r="J1" s="3">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3">
+        <v>9</v>
+      </c>
+      <c r="L1" s="3">
+        <v>10</v>
+      </c>
+      <c r="M1" s="3">
+        <v>11</v>
+      </c>
+      <c r="N1" s="3">
+        <v>12</v>
+      </c>
+      <c r="O1" s="3">
+        <v>13</v>
+      </c>
+      <c r="P1" s="3">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="27">
+        <v>6</v>
+      </c>
+      <c r="I2" s="28">
+        <v>10</v>
+      </c>
+      <c r="J2" s="28">
+        <v>10</v>
+      </c>
+      <c r="K2" s="29">
+        <v>7</v>
+      </c>
+      <c r="L2" s="30"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="31"/>
+    </row>
+    <row r="3" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A3" s="1">
+      <c r="B3" s="32"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="27">
+        <v>6</v>
+      </c>
+      <c r="E3" s="34">
+        <v>10</v>
+      </c>
+      <c r="F3" s="34">
+        <v>12</v>
+      </c>
+      <c r="G3" s="34">
+        <v>7</v>
+      </c>
+      <c r="H3" s="35">
+        <v>9</v>
+      </c>
+      <c r="I3" s="32"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="35">
+        <v>5</v>
+      </c>
+      <c r="L3" s="34">
+        <v>7</v>
+      </c>
+      <c r="M3" s="36"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="34">
+        <v>3</v>
+      </c>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="37"/>
+    </row>
+    <row r="4" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A4" s="1">
+      <c r="B4" s="32"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="35">
+        <v>9</v>
+      </c>
+      <c r="E4" s="38"/>
+      <c r="F4" s="35">
+        <v>9</v>
+      </c>
+      <c r="G4" s="39">
+        <v>5</v>
+      </c>
+      <c r="H4" s="34">
+        <v>8</v>
+      </c>
+      <c r="I4" s="32"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="39">
+        <v>5</v>
+      </c>
+      <c r="M4" s="34">
+        <v>10</v>
+      </c>
+      <c r="N4" s="34">
+        <v>10</v>
+      </c>
+      <c r="O4" s="34">
+        <v>14</v>
+      </c>
+      <c r="P4" s="34">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="40">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A5" s="1">
+      <c r="B5" s="32"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="35">
+        <v>9</v>
+      </c>
+      <c r="E5" s="41"/>
+      <c r="F5" s="35">
+        <v>11</v>
+      </c>
+      <c r="G5" s="34">
         <v>4</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A6" s="1">
+      <c r="H5" s="24"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="35">
+        <v>6</v>
+      </c>
+      <c r="M5" s="29">
+        <v>10</v>
+      </c>
+      <c r="N5" s="28">
+        <v>10</v>
+      </c>
+      <c r="O5" s="28">
+        <v>10</v>
+      </c>
+      <c r="P5" s="28">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="40">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="32"/>
+      <c r="C6" s="27">
+        <v>6</v>
+      </c>
+      <c r="D6" s="34">
+        <v>8</v>
+      </c>
+      <c r="E6" s="41"/>
+      <c r="F6" s="35">
+        <v>9</v>
+      </c>
+      <c r="G6" s="24"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="35">
+        <v>6</v>
+      </c>
+      <c r="L6" s="34">
+        <v>8</v>
+      </c>
+      <c r="M6" s="27">
+        <v>6</v>
+      </c>
+      <c r="N6" s="28">
+        <v>10</v>
+      </c>
+      <c r="O6" s="28">
+        <v>10</v>
+      </c>
+      <c r="P6" s="28">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="40">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A8" s="1">
+      <c r="B7" s="32"/>
+      <c r="C7" s="39">
+        <v>5</v>
+      </c>
+      <c r="D7" s="29">
+        <v>10</v>
+      </c>
+      <c r="E7" s="42">
         <v>7</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B13" s="2">
+      <c r="F7" s="39">
+        <v>5</v>
+      </c>
+      <c r="G7" s="42">
+        <v>7</v>
+      </c>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="35">
+        <v>6</v>
+      </c>
+      <c r="K7" s="34">
+        <v>8</v>
+      </c>
+      <c r="L7" s="27">
+        <v>6</v>
+      </c>
+      <c r="M7" s="34">
+        <v>8</v>
+      </c>
+      <c r="N7" s="24"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="32"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="34">
+        <v>11</v>
+      </c>
+      <c r="F8" s="34">
+        <v>12</v>
+      </c>
+      <c r="G8" s="44">
+        <v>8</v>
+      </c>
+      <c r="H8" s="29">
+        <v>6</v>
+      </c>
+      <c r="I8" s="29">
+        <v>10</v>
+      </c>
+      <c r="J8" s="34">
+        <v>8</v>
+      </c>
+      <c r="K8" s="45"/>
+      <c r="L8" s="34">
+        <v>9</v>
+      </c>
+      <c r="M8" s="27">
+        <v>3</v>
+      </c>
+      <c r="N8" s="36"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="34">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="40">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="32"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="34">
+        <v>6</v>
+      </c>
+      <c r="E9" s="34">
+        <v>8</v>
+      </c>
+      <c r="F9" s="39">
+        <v>5</v>
+      </c>
+      <c r="G9" s="34">
+        <v>7</v>
+      </c>
+      <c r="H9" s="46">
+        <v>9</v>
+      </c>
+      <c r="I9" s="47">
+        <v>6</v>
+      </c>
+      <c r="J9" s="48">
+        <v>7</v>
+      </c>
+      <c r="K9" s="34">
+        <v>6</v>
+      </c>
+      <c r="L9" s="34">
+        <v>13</v>
+      </c>
+      <c r="M9" s="35">
+        <v>11</v>
+      </c>
+      <c r="N9" s="49">
+        <v>10</v>
+      </c>
+      <c r="O9" s="49">
+        <v>10</v>
+      </c>
+      <c r="P9" s="44">
+        <v>8</v>
+      </c>
+      <c r="Q9" s="40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="50"/>
+      <c r="C10" s="34">
+        <v>6</v>
+      </c>
+      <c r="D10" s="34">
+        <v>8</v>
+      </c>
+      <c r="E10" s="24"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="34">
+        <v>9</v>
+      </c>
+      <c r="H10" s="35">
+        <v>11</v>
+      </c>
+      <c r="I10" s="51">
+        <v>14</v>
+      </c>
+      <c r="J10" s="52">
+        <v>8</v>
+      </c>
+      <c r="K10" s="40">
+        <v>9</v>
+      </c>
+      <c r="L10" s="34">
+        <v>9</v>
+      </c>
+      <c r="M10" s="46">
+        <v>9</v>
+      </c>
+      <c r="N10" s="34">
+        <v>6</v>
+      </c>
+      <c r="O10" s="34">
+        <v>10</v>
+      </c>
+      <c r="P10" s="42">
+        <v>7</v>
+      </c>
+      <c r="Q10" s="40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="35">
+        <v>6</v>
+      </c>
+      <c r="C11" s="34">
+        <v>8</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="53">
+        <v>2</v>
+      </c>
+      <c r="G11" s="34">
+        <v>13</v>
+      </c>
+      <c r="H11" s="39">
+        <v>5</v>
+      </c>
+      <c r="I11" s="34">
+        <v>10</v>
+      </c>
+      <c r="J11" s="34">
+        <v>10</v>
+      </c>
+      <c r="K11" s="44">
+        <v>8</v>
+      </c>
+      <c r="L11" s="34">
+        <v>5</v>
+      </c>
+      <c r="M11" s="44">
+        <v>8</v>
+      </c>
+      <c r="N11" s="34">
+        <v>9</v>
+      </c>
+      <c r="O11" s="45"/>
+      <c r="P11" s="40">
+        <v>9</v>
+      </c>
+      <c r="Q11" s="40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="35">
+        <v>9</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="34">
+        <v>9</v>
+      </c>
+      <c r="H12" s="30"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="27">
+        <v>6</v>
+      </c>
+      <c r="K12" s="29">
+        <v>10</v>
+      </c>
+      <c r="L12" s="29">
+        <v>10</v>
+      </c>
+      <c r="M12" s="42">
+        <v>7</v>
+      </c>
+      <c r="N12" s="34">
+        <v>11</v>
+      </c>
+      <c r="O12" s="54">
+        <v>4</v>
+      </c>
+      <c r="P12" s="40">
+        <v>9</v>
+      </c>
+      <c r="Q12" s="40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="35">
+        <v>11</v>
+      </c>
+      <c r="C13" s="54">
+        <v>4</v>
+      </c>
+      <c r="D13" s="33"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="34">
+        <v>9</v>
+      </c>
+      <c r="H13" s="27">
+        <v>6</v>
+      </c>
+      <c r="I13" s="42">
+        <v>7</v>
+      </c>
+      <c r="J13" s="34">
+        <v>9</v>
+      </c>
+      <c r="K13" s="24"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="34">
+        <v>5</v>
+      </c>
+      <c r="N13" s="40">
+        <v>13</v>
+      </c>
+      <c r="O13" s="31"/>
+      <c r="P13" s="39">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="44">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="35">
+        <v>9</v>
+      </c>
+      <c r="C14" s="30"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="34">
+        <v>6</v>
+      </c>
+      <c r="F14" s="34">
+        <v>12</v>
+      </c>
+      <c r="G14" s="34">
+        <v>14</v>
+      </c>
+      <c r="H14" s="34">
+        <v>8</v>
+      </c>
+      <c r="I14" s="39">
+        <v>5</v>
+      </c>
+      <c r="J14" s="44">
+        <v>8</v>
+      </c>
+      <c r="K14" s="33"/>
+      <c r="L14" s="27">
+        <v>3</v>
+      </c>
+      <c r="M14" s="45"/>
+      <c r="N14" s="40">
+        <v>9</v>
+      </c>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="56"/>
+    </row>
+    <row r="15" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="35">
+        <v>11</v>
+      </c>
+      <c r="C15" s="34">
+        <v>12</v>
+      </c>
+      <c r="D15" s="34">
+        <v>10</v>
+      </c>
+      <c r="E15" s="34">
+        <v>8</v>
+      </c>
+      <c r="F15" s="39">
+        <v>5</v>
+      </c>
+      <c r="G15" s="42">
+        <v>7</v>
+      </c>
+      <c r="H15" s="24"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="35">
+        <v>11</v>
+      </c>
+      <c r="M15" s="34">
+        <v>10</v>
+      </c>
+      <c r="N15" s="44">
+        <v>8</v>
+      </c>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="56"/>
+    </row>
+    <row r="16" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="35">
+        <v>9</v>
+      </c>
+      <c r="C16" s="35">
+        <v>9</v>
+      </c>
+      <c r="D16" s="30"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="34">
+        <v>11</v>
+      </c>
+      <c r="H16" s="29">
+        <v>7</v>
+      </c>
+      <c r="I16" s="36"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="35">
+        <v>9</v>
+      </c>
+      <c r="M16" s="24"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="56"/>
+    </row>
+    <row r="17" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="57"/>
+      <c r="C17" s="39">
+        <v>5</v>
+      </c>
+      <c r="D17" s="49">
+        <v>10</v>
+      </c>
+      <c r="E17" s="49">
+        <v>10</v>
+      </c>
+      <c r="F17" s="49">
+        <v>10</v>
+      </c>
+      <c r="G17" s="49">
+        <v>8</v>
+      </c>
+      <c r="H17" s="39">
+        <v>5</v>
+      </c>
+      <c r="I17" s="49">
+        <v>10</v>
+      </c>
+      <c r="J17" s="49">
+        <v>10</v>
+      </c>
+      <c r="K17" s="49">
+        <v>10</v>
+      </c>
+      <c r="L17" s="49">
+        <v>8</v>
+      </c>
+      <c r="M17" s="36"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="55"/>
+      <c r="Q17" s="37"/>
+    </row>
+    <row r="18" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A19" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="17"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A20" s="18"/>
+      <c r="B20" s="1">
         <v>1</v>
       </c>
-      <c r="D13" s="3">
+      <c r="C20" s="19"/>
+      <c r="D20" s="2">
         <v>2</v>
       </c>
-      <c r="F13" s="4">
+      <c r="E20" s="19"/>
+      <c r="F20" s="3">
         <v>3</v>
       </c>
-      <c r="H13" s="5">
+      <c r="G20" s="19"/>
+      <c r="H20" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B15" s="6">
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="20"/>
+    </row>
+    <row r="21" spans="1:17" ht="4.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="18"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="20"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A22" s="18"/>
+      <c r="B22" s="5">
         <v>5</v>
       </c>
-      <c r="D15" s="8">
-        <v>6</v>
-      </c>
-      <c r="F15" s="7">
+      <c r="C22" s="19"/>
+      <c r="D22" s="7">
+        <v>6</v>
+      </c>
+      <c r="E22" s="19"/>
+      <c r="F22" s="6">
         <v>7</v>
       </c>
-      <c r="H15" s="9">
-        <v>8</v>
-      </c>
-      <c r="J15" s="10">
-        <v>9</v>
-      </c>
-      <c r="L15" s="11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B17" s="12">
+      <c r="G22" s="19"/>
+      <c r="H22" s="8">
+        <v>8</v>
+      </c>
+      <c r="I22" s="19"/>
+      <c r="J22" s="9">
+        <v>9</v>
+      </c>
+      <c r="K22" s="19"/>
+      <c r="L22" s="10">
+        <v>10</v>
+      </c>
+      <c r="M22" s="20"/>
+    </row>
+    <row r="23" spans="1:17" ht="4.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="18"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="20"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A24" s="18"/>
+      <c r="B24" s="11">
         <v>11</v>
       </c>
-      <c r="D17" s="13">
+      <c r="C24" s="19"/>
+      <c r="D24" s="12">
         <v>12</v>
       </c>
-      <c r="F17" s="14">
+      <c r="E24" s="19"/>
+      <c r="F24" s="13">
         <v>13</v>
       </c>
-      <c r="H17" s="15">
+      <c r="G24" s="19"/>
+      <c r="H24" s="14">
         <v>14</v>
       </c>
-      <c r="J17">
+      <c r="I24" s="19"/>
+      <c r="J24" s="19">
         <v>15</v>
       </c>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="20"/>
+    </row>
+    <row r="25" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="21"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/シミュレータ設計書.xlsx
+++ b/シミュレータ設計書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magin\Desktop\WORK\micromouse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB185C1-0105-4344-9766-9369E95F014C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886B32CC-1AF3-46FA-BFE4-0371044DEF06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{8CE03580-2C65-4A35-AB90-6FFE0EA32C34}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>マップ情報定義</t>
     <rPh sb="3" eb="5">
@@ -42,6 +42,21 @@
     <rPh sb="5" eb="7">
       <t>テイギ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップサイズ：X,Y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期位置：x,y ※0～X-1、0～Y-1</t>
+    <rPh sb="0" eb="4">
+      <t>ショキイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップデータ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -100,12 +115,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="31">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -437,7 +467,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -483,7 +513,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
@@ -495,12 +525,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -510,106 +540,109 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -631,119 +664,174 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>161926</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>114301</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>165101</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>168089</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="shpSquare02" descr="付箋検索用文字列">
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{813FCE1D-0C6F-4722-A5BB-DCB66D340624}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D45DF368-8FFE-4EBE-846D-6E283B402CBB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
+        <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4210051" y="762001"/>
-          <a:ext cx="2695575" cy="898525"/>
+          <a:off x="5479676" y="1344706"/>
+          <a:ext cx="2554942" cy="3283324"/>
         </a:xfrm>
-        <a:prstGeom prst="wedgeRoundRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -60596"/>
-            <a:gd name="adj2" fmla="val 51747"/>
-            <a:gd name="adj3" fmla="val 16667"/>
-          </a:avLst>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
         </a:prstGeom>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFF99"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFCC"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="2700000" scaled="1"/>
-        </a:gradFill>
-        <a:ln w="9525"/>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="72000" tIns="72000" rIns="72000" bIns="72000" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-              <a:sym typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>こういう</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>16,16</a:t>
           </a:r>
+        </a:p>
+        <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-              <a:sym typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>2</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>0,15</a:t>
           </a:r>
+        </a:p>
+        <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-              <a:sym typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>次元配列をテスト用マップデータにする</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>0,0,0,0,0,0,6,10,10,7,0,0,0,0,0,0</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>0,0,6,10,12,7,9,0,0,5,7,0,0,3,0,0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>0,0,9,0,9,5,8,0,0,0,5,10,10,14,10,7</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>0,0,9,0,11,4,0,0,0,0,6,10,10,10,10,13</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>0,6,8,0,9,0,0,0,0,6,8,6,10,10,10,13</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>0,5,10,7,5,7,0,0,6,8,6,8,0,0,0,9</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>0,0,0,11,12,8,6,10,8,0,9,3,0,0,6,13</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>0,0,6,8,5,7,9,6,7,6,13,11,10,10,8,9</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>0,6,8,0,0,9,11,14,8,9,9,9,6,10,7,9</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>6,8,0,0,2,13,5,10,10,8,5,8,9,0,9,9</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>9,0,0,0,0,9,0,0,6,10,10,7,11,4,9,9</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>11,4,0,0,0,9,6,7,9,0,0,5,13,0,5,8</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>9,0,0,6,12,14,8,5,8,0,3,0,9,0,0,0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>11,12,10,8,5,7,0,0,0,0,11,10,8,0,0,0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>9,9,0,0,0,11,7,0,0,0,9,0,0,0,0,0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1,5,10,10,10,8,5,10,10,10,8,0,0,0,0,0</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -751,23 +839,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>157893</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>424142</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>164166</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
+        <xdr:cNvPr id="5" name="図 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC31748C-4763-4263-8D75-26DDF5D117B8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE1AE543-4D48-4F4D-B8BB-39B0B8523DF6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -790,8 +878,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4987068" y="104775"/>
-          <a:ext cx="6042882" cy="4533900"/>
+          <a:off x="8258735" y="1333500"/>
+          <a:ext cx="3998819" cy="1318372"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -808,6 +896,211 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>212912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>123264</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A625CFF-3EAD-45DE-9DE9-88E94CC5EE13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8258735" y="212912"/>
+          <a:ext cx="3697941" cy="851647"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>302559</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6F8AE74-DFAE-4E27-BDCA-E729BE0458DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5468471" y="4728882"/>
+          <a:ext cx="2554942" cy="3283324"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ゴールまでの最短経路を出力せよ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="0" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>x,y</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0,15</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0,14</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1110,10 +1403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F896E19C-296B-40ED-881E-2E0780B787F9}">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AF12" sqref="AF12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1124,837 +1417,1050 @@
     <col min="31" max="31" width="3.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="3">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3">
+    <row r="1" spans="1:19" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="4">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4">
         <v>1</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="4">
         <v>2</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="4">
         <v>3</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="4">
         <v>4</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="4">
         <v>5</v>
       </c>
-      <c r="H1" s="3">
+      <c r="H1" s="4">
         <v>6</v>
       </c>
-      <c r="I1" s="3">
+      <c r="I1" s="4">
         <v>7</v>
       </c>
-      <c r="J1" s="3">
+      <c r="J1" s="4">
         <v>8</v>
       </c>
-      <c r="K1" s="3">
-        <v>9</v>
-      </c>
-      <c r="L1" s="3">
-        <v>10</v>
-      </c>
-      <c r="M1" s="3">
+      <c r="K1" s="4">
+        <v>9</v>
+      </c>
+      <c r="L1" s="4">
+        <v>10</v>
+      </c>
+      <c r="M1" s="4">
         <v>11</v>
       </c>
-      <c r="N1" s="3">
+      <c r="N1" s="4">
         <v>12</v>
       </c>
-      <c r="O1" s="3">
+      <c r="O1" s="4">
         <v>13</v>
       </c>
-      <c r="P1" s="3">
+      <c r="P1" s="4">
         <v>14</v>
       </c>
-      <c r="Q1" s="3">
+      <c r="Q1" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="27">
+    <row r="2" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2" s="25">
+        <v>0</v>
+      </c>
+      <c r="C2" s="26">
+        <v>0</v>
+      </c>
+      <c r="D2" s="27">
+        <v>0</v>
+      </c>
+      <c r="E2" s="27">
+        <v>0</v>
+      </c>
+      <c r="F2" s="27">
+        <v>0</v>
+      </c>
+      <c r="G2" s="27">
+        <v>0</v>
+      </c>
+      <c r="H2" s="28">
         <v>6</v>
       </c>
-      <c r="I2" s="28">
-        <v>10</v>
-      </c>
-      <c r="J2" s="28">
-        <v>10</v>
-      </c>
-      <c r="K2" s="29">
+      <c r="I2" s="29">
+        <v>10</v>
+      </c>
+      <c r="J2" s="29">
+        <v>10</v>
+      </c>
+      <c r="K2" s="30">
         <v>7</v>
       </c>
-      <c r="L2" s="30"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="31"/>
+      <c r="L2" s="31">
+        <v>0</v>
+      </c>
+      <c r="M2" s="26">
+        <v>0</v>
+      </c>
+      <c r="N2" s="26">
+        <v>0</v>
+      </c>
+      <c r="O2" s="27">
+        <v>0</v>
+      </c>
+      <c r="P2" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="32">
+        <v>0</v>
+      </c>
+      <c r="S2" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="2">
+    <row r="3" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="27">
+      <c r="B3" s="33">
+        <v>0</v>
+      </c>
+      <c r="C3" s="34">
+        <v>0</v>
+      </c>
+      <c r="D3" s="28">
         <v>6</v>
       </c>
-      <c r="E3" s="34">
-        <v>10</v>
-      </c>
-      <c r="F3" s="34">
+      <c r="E3" s="35">
+        <v>10</v>
+      </c>
+      <c r="F3" s="35">
         <v>12</v>
       </c>
-      <c r="G3" s="34">
+      <c r="G3" s="35">
         <v>7</v>
       </c>
-      <c r="H3" s="35">
-        <v>9</v>
-      </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="35">
+      <c r="H3" s="36">
+        <v>9</v>
+      </c>
+      <c r="I3" s="33">
+        <v>0</v>
+      </c>
+      <c r="J3" s="34">
+        <v>0</v>
+      </c>
+      <c r="K3" s="36">
         <v>5</v>
       </c>
-      <c r="L3" s="34">
+      <c r="L3" s="35">
         <v>7</v>
       </c>
-      <c r="M3" s="36"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="34">
+      <c r="M3" s="37">
+        <v>0</v>
+      </c>
+      <c r="N3" s="38">
+        <v>0</v>
+      </c>
+      <c r="O3" s="35">
         <v>3</v>
       </c>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="37"/>
+      <c r="P3" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="38">
+        <v>0</v>
+      </c>
+      <c r="S3" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="2">
+    <row r="4" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="35">
-        <v>9</v>
-      </c>
-      <c r="E4" s="38"/>
-      <c r="F4" s="35">
-        <v>9</v>
-      </c>
-      <c r="G4" s="39">
+      <c r="B4" s="33">
+        <v>0</v>
+      </c>
+      <c r="C4" s="34">
+        <v>0</v>
+      </c>
+      <c r="D4" s="36">
+        <v>9</v>
+      </c>
+      <c r="E4" s="39">
+        <v>0</v>
+      </c>
+      <c r="F4" s="36">
+        <v>9</v>
+      </c>
+      <c r="G4" s="40">
         <v>5</v>
       </c>
-      <c r="H4" s="34">
+      <c r="H4" s="35">
         <v>8</v>
       </c>
-      <c r="I4" s="32"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="39">
+      <c r="I4" s="33">
+        <v>0</v>
+      </c>
+      <c r="J4" s="34">
+        <v>0</v>
+      </c>
+      <c r="K4" s="32">
+        <v>0</v>
+      </c>
+      <c r="L4" s="40">
         <v>5</v>
       </c>
-      <c r="M4" s="34">
-        <v>10</v>
-      </c>
-      <c r="N4" s="34">
-        <v>10</v>
-      </c>
-      <c r="O4" s="34">
+      <c r="M4" s="35">
+        <v>10</v>
+      </c>
+      <c r="N4" s="35">
+        <v>10</v>
+      </c>
+      <c r="O4" s="35">
         <v>14</v>
       </c>
-      <c r="P4" s="34">
-        <v>10</v>
-      </c>
-      <c r="Q4" s="40">
+      <c r="P4" s="35">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="41">
         <v>7</v>
       </c>
+      <c r="S4" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="2">
+    <row r="5" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="35">
-        <v>9</v>
-      </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="35">
+      <c r="B5" s="33">
+        <v>0</v>
+      </c>
+      <c r="C5" s="34">
+        <v>0</v>
+      </c>
+      <c r="D5" s="36">
+        <v>9</v>
+      </c>
+      <c r="E5" s="42">
+        <v>0</v>
+      </c>
+      <c r="F5" s="36">
         <v>11</v>
       </c>
-      <c r="G5" s="34">
+      <c r="G5" s="35">
         <v>4</v>
       </c>
-      <c r="H5" s="24"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="35">
+      <c r="H5" s="25">
+        <v>0</v>
+      </c>
+      <c r="I5" s="34">
+        <v>0</v>
+      </c>
+      <c r="J5" s="34">
+        <v>0</v>
+      </c>
+      <c r="K5" s="38">
+        <v>0</v>
+      </c>
+      <c r="L5" s="36">
         <v>6</v>
       </c>
-      <c r="M5" s="29">
-        <v>10</v>
-      </c>
-      <c r="N5" s="28">
-        <v>10</v>
-      </c>
-      <c r="O5" s="28">
-        <v>10</v>
-      </c>
-      <c r="P5" s="28">
-        <v>10</v>
-      </c>
-      <c r="Q5" s="40">
+      <c r="M5" s="30">
+        <v>10</v>
+      </c>
+      <c r="N5" s="29">
+        <v>10</v>
+      </c>
+      <c r="O5" s="29">
+        <v>10</v>
+      </c>
+      <c r="P5" s="29">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="41">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="2">
+    <row r="6" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="27">
+      <c r="B6" s="33">
+        <v>0</v>
+      </c>
+      <c r="C6" s="28">
         <v>6</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="35">
         <v>8</v>
       </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="35">
-        <v>9</v>
-      </c>
-      <c r="G6" s="24"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="35">
+      <c r="E6" s="42">
+        <v>0</v>
+      </c>
+      <c r="F6" s="36">
+        <v>9</v>
+      </c>
+      <c r="G6" s="25">
+        <v>0</v>
+      </c>
+      <c r="H6" s="34">
+        <v>0</v>
+      </c>
+      <c r="I6" s="34">
+        <v>0</v>
+      </c>
+      <c r="J6" s="38">
+        <v>0</v>
+      </c>
+      <c r="K6" s="36">
         <v>6</v>
       </c>
-      <c r="L6" s="34">
+      <c r="L6" s="35">
         <v>8</v>
       </c>
-      <c r="M6" s="27">
+      <c r="M6" s="28">
         <v>6</v>
       </c>
-      <c r="N6" s="28">
-        <v>10</v>
-      </c>
-      <c r="O6" s="28">
-        <v>10</v>
-      </c>
-      <c r="P6" s="28">
-        <v>10</v>
-      </c>
-      <c r="Q6" s="40">
+      <c r="N6" s="29">
+        <v>10</v>
+      </c>
+      <c r="O6" s="29">
+        <v>10</v>
+      </c>
+      <c r="P6" s="29">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="41">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="2">
+    <row r="7" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="39">
+      <c r="B7" s="33">
+        <v>0</v>
+      </c>
+      <c r="C7" s="40">
         <v>5</v>
       </c>
-      <c r="D7" s="29">
-        <v>10</v>
-      </c>
-      <c r="E7" s="42">
+      <c r="D7" s="30">
+        <v>10</v>
+      </c>
+      <c r="E7" s="43">
         <v>7</v>
       </c>
-      <c r="F7" s="39">
+      <c r="F7" s="40">
         <v>5</v>
       </c>
-      <c r="G7" s="42">
+      <c r="G7" s="43">
         <v>7</v>
       </c>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="35">
+      <c r="H7" s="34">
+        <v>0</v>
+      </c>
+      <c r="I7" s="34">
+        <v>0</v>
+      </c>
+      <c r="J7" s="36">
         <v>6</v>
       </c>
-      <c r="K7" s="34">
+      <c r="K7" s="35">
         <v>8</v>
       </c>
-      <c r="L7" s="27">
+      <c r="L7" s="28">
         <v>6</v>
       </c>
-      <c r="M7" s="34">
+      <c r="M7" s="35">
         <v>8</v>
       </c>
-      <c r="N7" s="24"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="40">
+      <c r="N7" s="25">
+        <v>0</v>
+      </c>
+      <c r="O7" s="26">
+        <v>0</v>
+      </c>
+      <c r="P7" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="41">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="2">
+    <row r="8" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="34">
+      <c r="B8" s="33">
+        <v>0</v>
+      </c>
+      <c r="C8" s="34">
+        <v>0</v>
+      </c>
+      <c r="D8" s="44">
+        <v>0</v>
+      </c>
+      <c r="E8" s="35">
         <v>11</v>
       </c>
-      <c r="F8" s="34">
+      <c r="F8" s="35">
         <v>12</v>
       </c>
-      <c r="G8" s="44">
+      <c r="G8" s="45">
         <v>8</v>
       </c>
-      <c r="H8" s="29">
+      <c r="H8" s="30">
         <v>6</v>
       </c>
-      <c r="I8" s="29">
-        <v>10</v>
-      </c>
-      <c r="J8" s="34">
+      <c r="I8" s="30">
+        <v>10</v>
+      </c>
+      <c r="J8" s="35">
         <v>8</v>
       </c>
-      <c r="K8" s="45"/>
-      <c r="L8" s="34">
-        <v>9</v>
-      </c>
-      <c r="M8" s="27">
+      <c r="K8" s="46">
+        <v>0</v>
+      </c>
+      <c r="L8" s="35">
+        <v>9</v>
+      </c>
+      <c r="M8" s="28">
         <v>3</v>
       </c>
-      <c r="N8" s="36"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="34">
+      <c r="N8" s="37">
+        <v>0</v>
+      </c>
+      <c r="O8" s="38">
+        <v>0</v>
+      </c>
+      <c r="P8" s="35">
         <v>6</v>
       </c>
-      <c r="Q8" s="40">
+      <c r="Q8" s="41">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="2">
+    <row r="9" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="34">
+      <c r="B9" s="33">
+        <v>0</v>
+      </c>
+      <c r="C9" s="38">
+        <v>0</v>
+      </c>
+      <c r="D9" s="35">
         <v>6</v>
       </c>
-      <c r="E9" s="34">
+      <c r="E9" s="35">
         <v>8</v>
       </c>
-      <c r="F9" s="39">
+      <c r="F9" s="40">
         <v>5</v>
       </c>
-      <c r="G9" s="34">
+      <c r="G9" s="35">
         <v>7</v>
       </c>
-      <c r="H9" s="46">
-        <v>9</v>
-      </c>
-      <c r="I9" s="47">
+      <c r="H9" s="47">
+        <v>9</v>
+      </c>
+      <c r="I9" s="48">
         <v>6</v>
       </c>
-      <c r="J9" s="48">
+      <c r="J9" s="49">
         <v>7</v>
       </c>
-      <c r="K9" s="34">
+      <c r="K9" s="35">
         <v>6</v>
       </c>
-      <c r="L9" s="34">
+      <c r="L9" s="35">
         <v>13</v>
       </c>
-      <c r="M9" s="35">
+      <c r="M9" s="36">
         <v>11</v>
       </c>
-      <c r="N9" s="49">
-        <v>10</v>
-      </c>
-      <c r="O9" s="49">
-        <v>10</v>
-      </c>
-      <c r="P9" s="44">
+      <c r="N9" s="50">
+        <v>10</v>
+      </c>
+      <c r="O9" s="50">
+        <v>10</v>
+      </c>
+      <c r="P9" s="45">
         <v>8</v>
       </c>
-      <c r="Q9" s="40">
+      <c r="Q9" s="41">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="2">
+    <row r="10" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="34">
+      <c r="B10" s="51">
+        <v>0</v>
+      </c>
+      <c r="C10" s="35">
         <v>6</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="35">
         <v>8</v>
       </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="34">
-        <v>9</v>
-      </c>
-      <c r="H10" s="35">
+      <c r="E10" s="25">
+        <v>0</v>
+      </c>
+      <c r="F10" s="44">
+        <v>0</v>
+      </c>
+      <c r="G10" s="35">
+        <v>9</v>
+      </c>
+      <c r="H10" s="36">
         <v>11</v>
       </c>
-      <c r="I10" s="51">
+      <c r="I10" s="52">
         <v>14</v>
       </c>
-      <c r="J10" s="52">
+      <c r="J10" s="53">
         <v>8</v>
       </c>
-      <c r="K10" s="40">
-        <v>9</v>
-      </c>
-      <c r="L10" s="34">
-        <v>9</v>
-      </c>
-      <c r="M10" s="46">
-        <v>9</v>
-      </c>
-      <c r="N10" s="34">
+      <c r="K10" s="41">
+        <v>9</v>
+      </c>
+      <c r="L10" s="35">
+        <v>9</v>
+      </c>
+      <c r="M10" s="47">
+        <v>9</v>
+      </c>
+      <c r="N10" s="35">
         <v>6</v>
       </c>
-      <c r="O10" s="34">
-        <v>10</v>
-      </c>
-      <c r="P10" s="42">
+      <c r="O10" s="35">
+        <v>10</v>
+      </c>
+      <c r="P10" s="43">
         <v>7</v>
       </c>
-      <c r="Q10" s="40">
+      <c r="Q10" s="41">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="2">
-        <v>9</v>
-      </c>
-      <c r="B11" s="35">
+    <row r="11" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="36">
         <v>6</v>
       </c>
-      <c r="C11" s="34">
+      <c r="C11" s="35">
         <v>8</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="53">
+      <c r="D11" s="25">
+        <v>0</v>
+      </c>
+      <c r="E11" s="34">
+        <v>0</v>
+      </c>
+      <c r="F11" s="54">
         <v>2</v>
       </c>
-      <c r="G11" s="34">
+      <c r="G11" s="35">
         <v>13</v>
       </c>
-      <c r="H11" s="39">
+      <c r="H11" s="40">
         <v>5</v>
       </c>
-      <c r="I11" s="34">
-        <v>10</v>
-      </c>
-      <c r="J11" s="34">
-        <v>10</v>
-      </c>
-      <c r="K11" s="44">
+      <c r="I11" s="35">
+        <v>10</v>
+      </c>
+      <c r="J11" s="35">
+        <v>10</v>
+      </c>
+      <c r="K11" s="45">
         <v>8</v>
       </c>
-      <c r="L11" s="34">
+      <c r="L11" s="35">
         <v>5</v>
       </c>
-      <c r="M11" s="44">
+      <c r="M11" s="45">
         <v>8</v>
       </c>
-      <c r="N11" s="34">
-        <v>9</v>
-      </c>
-      <c r="O11" s="45"/>
-      <c r="P11" s="40">
-        <v>9</v>
-      </c>
-      <c r="Q11" s="40">
+      <c r="N11" s="35">
+        <v>9</v>
+      </c>
+      <c r="O11" s="46">
+        <v>0</v>
+      </c>
+      <c r="P11" s="41">
+        <v>9</v>
+      </c>
+      <c r="Q11" s="41">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="2">
-        <v>10</v>
-      </c>
-      <c r="B12" s="35">
-        <v>9</v>
-      </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="34">
-        <v>9</v>
-      </c>
-      <c r="H12" s="30"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="27">
+    <row r="12" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="36">
+        <v>9</v>
+      </c>
+      <c r="C12" s="25">
+        <v>0</v>
+      </c>
+      <c r="D12" s="34">
+        <v>0</v>
+      </c>
+      <c r="E12" s="34">
+        <v>0</v>
+      </c>
+      <c r="F12" s="32">
+        <v>0</v>
+      </c>
+      <c r="G12" s="35">
+        <v>9</v>
+      </c>
+      <c r="H12" s="31">
+        <v>0</v>
+      </c>
+      <c r="I12" s="44">
+        <v>0</v>
+      </c>
+      <c r="J12" s="28">
         <v>6</v>
       </c>
-      <c r="K12" s="29">
-        <v>10</v>
-      </c>
-      <c r="L12" s="29">
-        <v>10</v>
-      </c>
-      <c r="M12" s="42">
+      <c r="K12" s="30">
+        <v>10</v>
+      </c>
+      <c r="L12" s="30">
+        <v>10</v>
+      </c>
+      <c r="M12" s="43">
         <v>7</v>
       </c>
-      <c r="N12" s="34">
+      <c r="N12" s="35">
         <v>11</v>
       </c>
-      <c r="O12" s="54">
+      <c r="O12" s="55">
         <v>4</v>
       </c>
-      <c r="P12" s="40">
-        <v>9</v>
-      </c>
-      <c r="Q12" s="40">
+      <c r="P12" s="41">
+        <v>9</v>
+      </c>
+      <c r="Q12" s="41">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="2">
+    <row r="13" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="35">
+      <c r="B13" s="36">
         <v>11</v>
       </c>
-      <c r="C13" s="54">
+      <c r="C13" s="55">
         <v>4</v>
       </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="34">
-        <v>9</v>
-      </c>
-      <c r="H13" s="27">
+      <c r="D13" s="34">
+        <v>0</v>
+      </c>
+      <c r="E13" s="56">
+        <v>0</v>
+      </c>
+      <c r="F13" s="38">
+        <v>0</v>
+      </c>
+      <c r="G13" s="35">
+        <v>9</v>
+      </c>
+      <c r="H13" s="28">
         <v>6</v>
       </c>
-      <c r="I13" s="42">
+      <c r="I13" s="43">
         <v>7</v>
       </c>
-      <c r="J13" s="34">
-        <v>9</v>
-      </c>
-      <c r="K13" s="24"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="34">
+      <c r="J13" s="35">
+        <v>9</v>
+      </c>
+      <c r="K13" s="25">
+        <v>0</v>
+      </c>
+      <c r="L13" s="32">
+        <v>0</v>
+      </c>
+      <c r="M13" s="35">
         <v>5</v>
       </c>
-      <c r="N13" s="40">
+      <c r="N13" s="41">
         <v>13</v>
       </c>
-      <c r="O13" s="31"/>
-      <c r="P13" s="39">
+      <c r="O13" s="32">
+        <v>0</v>
+      </c>
+      <c r="P13" s="40">
         <v>5</v>
       </c>
-      <c r="Q13" s="44">
+      <c r="Q13" s="45">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="2">
+    <row r="14" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="35">
-        <v>9</v>
-      </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="34">
+      <c r="B14" s="36">
+        <v>9</v>
+      </c>
+      <c r="C14" s="31">
+        <v>0</v>
+      </c>
+      <c r="D14" s="38">
+        <v>0</v>
+      </c>
+      <c r="E14" s="35">
         <v>6</v>
       </c>
-      <c r="F14" s="34">
+      <c r="F14" s="35">
         <v>12</v>
       </c>
-      <c r="G14" s="34">
+      <c r="G14" s="35">
         <v>14</v>
       </c>
-      <c r="H14" s="34">
+      <c r="H14" s="35">
         <v>8</v>
       </c>
-      <c r="I14" s="39">
+      <c r="I14" s="40">
         <v>5</v>
       </c>
-      <c r="J14" s="44">
+      <c r="J14" s="45">
         <v>8</v>
       </c>
-      <c r="K14" s="33"/>
-      <c r="L14" s="27">
+      <c r="K14" s="34">
+        <v>0</v>
+      </c>
+      <c r="L14" s="28">
         <v>3</v>
       </c>
-      <c r="M14" s="45"/>
-      <c r="N14" s="40">
-        <v>9</v>
-      </c>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="56"/>
+      <c r="M14" s="46">
+        <v>0</v>
+      </c>
+      <c r="N14" s="41">
+        <v>9</v>
+      </c>
+      <c r="O14" s="34">
+        <v>0</v>
+      </c>
+      <c r="P14" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="57">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="2">
+    <row r="15" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="35">
+      <c r="B15" s="36">
         <v>11</v>
       </c>
-      <c r="C15" s="34">
+      <c r="C15" s="35">
         <v>12</v>
       </c>
-      <c r="D15" s="34">
-        <v>10</v>
-      </c>
-      <c r="E15" s="34">
+      <c r="D15" s="35">
+        <v>10</v>
+      </c>
+      <c r="E15" s="35">
         <v>8</v>
       </c>
-      <c r="F15" s="39">
+      <c r="F15" s="40">
         <v>5</v>
       </c>
-      <c r="G15" s="42">
+      <c r="G15" s="43">
         <v>7</v>
       </c>
-      <c r="H15" s="24"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="35">
+      <c r="H15" s="25">
+        <v>0</v>
+      </c>
+      <c r="I15" s="26">
+        <v>0</v>
+      </c>
+      <c r="J15" s="26">
+        <v>0</v>
+      </c>
+      <c r="K15" s="34">
+        <v>0</v>
+      </c>
+      <c r="L15" s="36">
         <v>11</v>
       </c>
-      <c r="M15" s="34">
-        <v>10</v>
-      </c>
-      <c r="N15" s="44">
+      <c r="M15" s="35">
+        <v>10</v>
+      </c>
+      <c r="N15" s="45">
         <v>8</v>
       </c>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="56"/>
+      <c r="O15" s="34">
+        <v>0</v>
+      </c>
+      <c r="P15" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="57">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="2">
+    <row r="16" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="35">
-        <v>9</v>
-      </c>
-      <c r="C16" s="35">
-        <v>9</v>
-      </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="34">
+      <c r="B16" s="36">
+        <v>9</v>
+      </c>
+      <c r="C16" s="36">
+        <v>9</v>
+      </c>
+      <c r="D16" s="31">
+        <v>0</v>
+      </c>
+      <c r="E16" s="27">
+        <v>0</v>
+      </c>
+      <c r="F16" s="44">
+        <v>0</v>
+      </c>
+      <c r="G16" s="35">
         <v>11</v>
       </c>
-      <c r="H16" s="29">
+      <c r="H16" s="30">
         <v>7</v>
       </c>
-      <c r="I16" s="36"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="35">
-        <v>9</v>
-      </c>
-      <c r="M16" s="24"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="56"/>
+      <c r="I16" s="37">
+        <v>0</v>
+      </c>
+      <c r="J16" s="56">
+        <v>0</v>
+      </c>
+      <c r="K16" s="38">
+        <v>0</v>
+      </c>
+      <c r="L16" s="36">
+        <v>9</v>
+      </c>
+      <c r="M16" s="25">
+        <v>0</v>
+      </c>
+      <c r="N16" s="34">
+        <v>0</v>
+      </c>
+      <c r="O16" s="34">
+        <v>0</v>
+      </c>
+      <c r="P16" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="57">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="2">
+      <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="39">
+      <c r="B17" s="58">
+        <v>1</v>
+      </c>
+      <c r="C17" s="40">
         <v>5</v>
       </c>
-      <c r="D17" s="49">
-        <v>10</v>
-      </c>
-      <c r="E17" s="49">
-        <v>10</v>
-      </c>
-      <c r="F17" s="49">
-        <v>10</v>
-      </c>
-      <c r="G17" s="49">
+      <c r="D17" s="50">
+        <v>10</v>
+      </c>
+      <c r="E17" s="50">
+        <v>10</v>
+      </c>
+      <c r="F17" s="50">
+        <v>10</v>
+      </c>
+      <c r="G17" s="50">
         <v>8</v>
       </c>
-      <c r="H17" s="39">
+      <c r="H17" s="40">
         <v>5</v>
       </c>
-      <c r="I17" s="49">
-        <v>10</v>
-      </c>
-      <c r="J17" s="49">
-        <v>10</v>
-      </c>
-      <c r="K17" s="49">
-        <v>10</v>
-      </c>
-      <c r="L17" s="49">
+      <c r="I17" s="50">
+        <v>10</v>
+      </c>
+      <c r="J17" s="50">
+        <v>10</v>
+      </c>
+      <c r="K17" s="50">
+        <v>10</v>
+      </c>
+      <c r="L17" s="50">
         <v>8</v>
       </c>
-      <c r="M17" s="36"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="37"/>
+      <c r="M17" s="37">
+        <v>0</v>
+      </c>
+      <c r="N17" s="56">
+        <v>0</v>
+      </c>
+      <c r="O17" s="56">
+        <v>0</v>
+      </c>
+      <c r="P17" s="56">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="38">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="19" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A19" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="17"/>
+      <c r="A19" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="18"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A20" s="18"/>
-      <c r="B20" s="1">
+      <c r="A20" s="19"/>
+      <c r="B20" s="2">
         <v>1</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="2">
+      <c r="C20" s="20"/>
+      <c r="D20" s="3">
         <v>2</v>
       </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="3">
+      <c r="E20" s="20"/>
+      <c r="F20" s="4">
         <v>3</v>
       </c>
-      <c r="G20" s="19"/>
-      <c r="H20" s="4">
+      <c r="G20" s="20"/>
+      <c r="H20" s="5">
         <v>4</v>
       </c>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="21"/>
     </row>
     <row r="21" spans="1:17" ht="4.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="18"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="20"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="21"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A22" s="18"/>
-      <c r="B22" s="5">
+      <c r="A22" s="19"/>
+      <c r="B22" s="6">
         <v>5</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="7">
+      <c r="C22" s="20"/>
+      <c r="D22" s="8">
         <v>6</v>
       </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="6">
+      <c r="E22" s="20"/>
+      <c r="F22" s="7">
         <v>7</v>
       </c>
-      <c r="G22" s="19"/>
-      <c r="H22" s="8">
+      <c r="G22" s="20"/>
+      <c r="H22" s="9">
         <v>8</v>
       </c>
-      <c r="I22" s="19"/>
-      <c r="J22" s="9">
-        <v>9</v>
-      </c>
-      <c r="K22" s="19"/>
-      <c r="L22" s="10">
-        <v>10</v>
-      </c>
-      <c r="M22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="10">
+        <v>9</v>
+      </c>
+      <c r="K22" s="20"/>
+      <c r="L22" s="11">
+        <v>10</v>
+      </c>
+      <c r="M22" s="21"/>
     </row>
     <row r="23" spans="1:17" ht="4.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="18"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="20"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="21"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A24" s="18"/>
-      <c r="B24" s="11">
+      <c r="A24" s="19"/>
+      <c r="B24" s="12">
         <v>11</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="12">
+      <c r="C24" s="20"/>
+      <c r="D24" s="13">
         <v>12</v>
       </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="13">
+      <c r="E24" s="20"/>
+      <c r="F24" s="14">
         <v>13</v>
       </c>
-      <c r="G24" s="19"/>
-      <c r="H24" s="14">
+      <c r="G24" s="20"/>
+      <c r="H24" s="15">
         <v>14</v>
       </c>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19">
-        <v>15</v>
-      </c>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="21"/>
     </row>
     <row r="25" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="21"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="23"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/シミュレータ設計書.xlsx
+++ b/シミュレータ設計書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magin\Desktop\WORK\micromouse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886B32CC-1AF3-46FA-BFE4-0371044DEF06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855ECB29-4338-462A-8568-7C50BCA8BD10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{8CE03580-2C65-4A35-AB90-6FFE0EA32C34}"/>
   </bookViews>
@@ -968,13 +968,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>302559</xdr:colOff>
+      <xdr:colOff>302557</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>22411</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>78442</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>324970</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:to>
@@ -991,8 +991,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5468471" y="4728882"/>
-          <a:ext cx="2554942" cy="3283324"/>
+          <a:off x="5468469" y="4728882"/>
+          <a:ext cx="3955677" cy="3283324"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1028,76 +1028,36 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ゴールまでの最短経路を出力せよ</a:t>
+            <a:t>①ゴールまでたどり着くアルゴリズム</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="0" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="0" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>x,y</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>②ゴールを認識</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="0" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>0,15</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>③全ルート通るアルゴリズム</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="0" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>0,14</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>④マップ情報から、最短経路を検索するアルゴリズム</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="0" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>0</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>⑤直線考慮した最速経路を計算するアルゴリズム</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
